--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABC/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABC/15/seed1/result_data_RandomForest.xlsx
@@ -485,7 +485,7 @@
         <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.10299999999999</v>
+        <v>-10.92689999999999</v>
       </c>
       <c r="D3" t="n">
         <v>-6.85</v>
@@ -496,13 +496,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.1374</v>
+        <v>-21.14310000000001</v>
       </c>
       <c r="B4" t="n">
-        <v>4.829600000000007</v>
+        <v>4.837100000000005</v>
       </c>
       <c r="C4" t="n">
-        <v>-11.14449999999999</v>
+        <v>-11.04319999999999</v>
       </c>
       <c r="D4" t="n">
         <v>-7.43</v>
@@ -516,7 +516,7 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.186000000000002</v>
+        <v>5.131400000000001</v>
       </c>
       <c r="C5" t="n">
         <v>-15.14</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-21.4033</v>
+        <v>-21.3928</v>
       </c>
       <c r="B6" t="n">
         <v>7.87</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.57380000000001</v>
+        <v>-21.4279</v>
       </c>
       <c r="B7" t="n">
         <v>6.56</v>
@@ -567,7 +567,7 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>5.232900000000005</v>
+        <v>4.861400000000003</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
@@ -587,7 +587,7 @@
         <v>10.18</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.64850000000001</v>
+        <v>-11.81610000000001</v>
       </c>
       <c r="D9" t="n">
         <v>-9.9</v>
@@ -621,7 +621,7 @@
         <v>6.01</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.4937</v>
+        <v>-14.0186</v>
       </c>
       <c r="D11" t="n">
         <v>-8.01</v>
@@ -672,7 +672,7 @@
         <v>8.33</v>
       </c>
       <c r="C14" t="n">
-        <v>-11.975</v>
+        <v>-11.9723</v>
       </c>
       <c r="D14" t="n">
         <v>-7.97</v>
@@ -700,10 +700,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.50250000000001</v>
+        <v>-21.46170000000002</v>
       </c>
       <c r="B16" t="n">
-        <v>5.532599999999995</v>
+        <v>5.439699999999995</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
@@ -740,7 +740,7 @@
         <v>5.81</v>
       </c>
       <c r="C18" t="n">
-        <v>-14.40040000000001</v>
+        <v>-14.50530000000001</v>
       </c>
       <c r="D18" t="n">
         <v>-8.869999999999999</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.95410000000001</v>
+        <v>-22.89900000000002</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -805,7 +805,7 @@
         <v>-20.95</v>
       </c>
       <c r="B22" t="n">
-        <v>5.602799999999999</v>
+        <v>5.4118</v>
       </c>
       <c r="C22" t="n">
         <v>-10.65</v>
@@ -859,7 +859,7 @@
         <v>5.09</v>
       </c>
       <c r="C25" t="n">
-        <v>-11.10689999999999</v>
+        <v>-10.91529999999999</v>
       </c>
       <c r="D25" t="n">
         <v>-7.71</v>
